--- a/src/data/main.xlsx
+++ b/src/data/main.xlsx
@@ -3046,7 +3046,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3065,6 +3065,16 @@
           <t>url</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>thumbnail</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3075,6 +3085,16 @@
       <c r="B2" t="inlineStr">
         <is>
           <t>https://nakamura196.github.io/shajikaido/iiif/collection/top.json</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>社寺会堂プロジェクトチームに参加する学術・宗教６施設はそれぞれ隣接する地域のなかで精神文化を支えてきました。それぞれの施設の歴史や活動については独立して取り上げられることが多く、地域のなかで横断して通時的・共時的に捉える機会は多くありません。そうした「点」としての各施設を、デジタルアーカイブによって「線」として結び、地域という「面」のなかに位置付けるワークショップを開催します。</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://prtimes.jp/i/25172/22/resize/d25172-22-526545-2.png</t>
         </is>
       </c>
     </row>

--- a/src/data/main.xlsx
+++ b/src/data/main.xlsx
@@ -672,7 +672,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/3枚綴のコピー.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/3枚綴.jpg</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/3枚綴のコピー.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/3枚綴.jpg</t>
         </is>
       </c>
     </row>
@@ -2629,12 +2629,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/original/神田明神/3枚綴のコピー.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/original/神田明神/3枚綴.jpg</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/3枚綴のコピー.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/3枚綴.jpg</t>
         </is>
       </c>
       <c r="D46" t="n">

--- a/src/data/main.xlsx
+++ b/src/data/main.xlsx
@@ -576,18 +576,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>アッサラームファンデーション候補画像</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>アッサラームファンデーション候補画像</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/20190605_081738.jpg</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/iiif/アッサラームファンデーション候補画像/manifest.json</t>
+          <t>https://nakamura196.github.io/shajikaido/iiif/assalaamfoundation/manifest.json</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -597,7 +601,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>http://universalviewer.io/examples/uv/uv.html#?manifest=https://nakamura196.github.io/shajikaido/iiif/アッサラームファンデーション候補画像/manifest.json</t>
+          <t>http://universalviewer.io/examples/uv/uv.html#?manifest=https://nakamura196.github.io/shajikaido/iiif/assalaamfoundation/manifest.json</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -608,7 +612,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>アッサラームファンデーション候補画像</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
     </row>
@@ -795,7 +799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -818,226 +822,742 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>寛永寺</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/寛永寺/寛永寺１：東都上野東叡山全図　（葵の間什物）.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/20190605_081738.jpg</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>神田明神</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/3枚綴.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/20190621_122053.jpg</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>神田明神</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/令和元年の神田祭　町神輿渡御.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/20200110_124725.jpg</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>神田明神</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/令和元年の神田祭　神幸祭.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/20200111_193114.jpg</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>神田明神</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/大正11年の神田祭.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/20200208_192738.jpg</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>神田明神</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/大正5年の神田祭.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/20200208_192808.jpg</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>神田明神</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/明治17年の神田祭.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20160912-WA0003.jpg</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>神田明神</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/錦02-01-36-1.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20160912-WA0009.jpg</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>神田明神</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/錦02-01-36-2.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20161230-WA0000.jpg</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>神田明神</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/錦02-01-36-3.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20170529-WA0008.jpg</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>神田明神</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/錦02-01-87　神田祭出しづくし001.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20170529-WA0009.jpg</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>神田明神</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/錦02-01-87　神田祭出しづくし002.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20170625-WA0071.jpg</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>神田明神</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/錦02-01-87　神田祭出しづくし003.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20171123-WA0032.jpg</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>湯島聖堂</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/湯島聖堂/第1回夏期修養會：記念写真：1936.8月.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20171125-WA0002.jpg</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>湯島聖堂</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/湯島聖堂/第3回夏期修養會：第1回：記念写真：1938.7.25.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20171125-WA0025.jpg</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>湯島聖堂</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/湯島聖堂/第3回夏期修養會：第2回：記念写真：1938.8.5.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20171126-WA0008.jpg</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>湯島天満宮</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/湯島天満宮/DSC_1088 (2).jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20190301-WA0011.jpg</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>湯島天満宮</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/湯島天満宮/本殿2.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20190301-WA0012.jpg</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20190315-WA0064.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20190517-WA0014.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20190518-WA0010.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20190518-WA0014.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20190518-WA0015.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20190518-WA0016.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20190518-WA0026.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20191110-WA0009.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20191116-WA0137.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20191116-WA0138.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20191116-WA0140.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20191228-WA0091.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20200208-WA0059.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20200208-WA0061.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20200214-WA0031.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG20171124125146.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG20180303193338.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG20180303201021.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG_20180518_175542.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG_20180822_070434.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG_20180822_070449.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG_20180822_071356.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG_20180822_071439.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG_20180822_082103.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/Masjid Group-Entrance.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>寛永寺</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/寛永寺/寛永寺１：東都上野東叡山全図　（葵の間什物）.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>神田明神</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/3枚綴.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>神田明神</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/令和元年の神田祭　町神輿渡御.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>神田明神</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/令和元年の神田祭　神幸祭.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>神田明神</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/大正11年の神田祭.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>神田明神</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/大正5年の神田祭.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>神田明神</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/明治17年の神田祭.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>神田明神</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/錦02-01-36-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>神田明神</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/錦02-01-36-2.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>神田明神</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/錦02-01-36-3.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>神田明神</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/錦02-01-87　神田祭出しづくし001.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>神田明神</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/錦02-01-87　神田祭出しづくし002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>神田明神</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/錦02-01-87　神田祭出しづくし003.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>湯島聖堂</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/湯島聖堂/第1回夏期修養會：記念写真：1936.8月.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>湯島聖堂</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/湯島聖堂/第3回夏期修養會：第1回：記念写真：1938.7.25.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>湯島聖堂</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/湯島聖堂/第3回夏期修養會：第2回：記念写真：1938.8.5.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
           <t>湯島天満宮</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/湯島天満宮/DSC_1088 (2).jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>湯島天満宮</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/湯島天満宮/本殿2.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>湯島天満宮</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>https://nakamura196.github.io/shajikaido/files/medium/湯島天満宮/梅まつり画像 (6).jpg</t>
         </is>
@@ -1054,7 +1574,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1092,437 +1612,1426 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>寛永寺</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/original/寛永寺/寛永寺１：東都上野東叡山全図　（葵の間什物）.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/20190605_081738.jpg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/寛永寺/寛永寺１：東都上野東叡山全図　（葵の間什物）.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/20190605_081738.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5189</v>
+        <v>4032</v>
       </c>
       <c r="E2" t="n">
-        <v>2529</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>神田明神</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/original/神田明神/3枚綴.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/20190621_122053.jpg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/3枚綴.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/20190621_122053.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4888</v>
+        <v>4032</v>
       </c>
       <c r="E3" t="n">
-        <v>2457</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>神田明神</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/original/神田明神/令和元年の神田祭　町神輿渡御.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/20200110_124725.jpg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/令和元年の神田祭　町神輿渡御.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/20200110_124725.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5616</v>
+        <v>4032</v>
       </c>
       <c r="E4" t="n">
-        <v>3744</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>神田明神</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/original/神田明神/令和元年の神田祭　神幸祭.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/20200111_193114.jpg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/令和元年の神田祭　神幸祭.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/20200111_193114.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7360</v>
+        <v>4032</v>
       </c>
       <c r="E5" t="n">
-        <v>4912</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>神田明神</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/original/神田明神/大正11年の神田祭.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/20200208_192738.jpg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/大正11年の神田祭.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/20200208_192738.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3107</v>
+        <v>4032</v>
       </c>
       <c r="E6" t="n">
-        <v>1888</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>神田明神</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/original/神田明神/大正5年の神田祭.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/20200208_192808.jpg</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/大正5年の神田祭.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/20200208_192808.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3756</v>
+        <v>4032</v>
       </c>
       <c r="E7" t="n">
-        <v>5285</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>神田明神</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/original/神田明神/明治17年の神田祭.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG-20160912-WA0003.jpg</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/明治17年の神田祭.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20160912-WA0003.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6082</v>
+        <v>1024</v>
       </c>
       <c r="E8" t="n">
-        <v>4771</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>神田明神</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/original/神田明神/錦02-01-36-1.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG-20160912-WA0009.jpg</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/錦02-01-36-1.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20160912-WA0009.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6097</v>
+        <v>1429</v>
       </c>
       <c r="E9" t="n">
-        <v>9039</v>
+        <v>797</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>神田明神</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/original/神田明神/錦02-01-36-2.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG-20161230-WA0000.jpg</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/錦02-01-36-2.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20161230-WA0000.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6097</v>
+        <v>1200</v>
       </c>
       <c r="E10" t="n">
-        <v>8942</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>神田明神</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/original/神田明神/錦02-01-36-3.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG-20170529-WA0008.jpg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/錦02-01-36-3.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20170529-WA0008.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6078</v>
+        <v>1600</v>
       </c>
       <c r="E11" t="n">
-        <v>9019</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>神田明神</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/original/神田明神/錦02-01-87　神田祭出しづくし001.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG-20170529-WA0009.jpg</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/錦02-01-87　神田祭出しづくし001.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20170529-WA0009.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6156</v>
+        <v>1600</v>
       </c>
       <c r="E12" t="n">
-        <v>8736</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>神田明神</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/original/神田明神/錦02-01-87　神田祭出しづくし002.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG-20170625-WA0071.jpg</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/錦02-01-87　神田祭出しづくし002.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20170625-WA0071.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6156</v>
+        <v>1600</v>
       </c>
       <c r="E13" t="n">
-        <v>8736</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>神田明神</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/original/神田明神/錦02-01-87　神田祭出しづくし003.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG-20171123-WA0032.jpg</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/錦02-01-87　神田祭出しづくし003.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20171123-WA0032.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6156</v>
+        <v>1600</v>
       </c>
       <c r="E14" t="n">
-        <v>8736</v>
+        <v>901</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>湯島聖堂</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/original/湯島聖堂/第1回夏期修養會：記念写真：1936.8月.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG-20171125-WA0002.jpg</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/湯島聖堂/第1回夏期修養會：記念写真：1936.8月.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20171125-WA0002.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6535</v>
+        <v>1600</v>
       </c>
       <c r="E15" t="n">
-        <v>4614</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>湯島聖堂</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/original/湯島聖堂/第3回夏期修養會：第1回：記念写真：1938.7.25.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG-20171125-WA0025.jpg</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/湯島聖堂/第3回夏期修養會：第1回：記念写真：1938.7.25.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20171125-WA0025.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3379</v>
+        <v>1280</v>
       </c>
       <c r="E16" t="n">
-        <v>4866</v>
+        <v>960</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>湯島聖堂</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/original/湯島聖堂/第3回夏期修養會：第2回：記念写真：1938.8.5.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG-20171126-WA0008.jpg</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/湯島聖堂/第3回夏期修養會：第2回：記念写真：1938.8.5.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20171126-WA0008.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3379</v>
+        <v>1600</v>
       </c>
       <c r="E17" t="n">
-        <v>4866</v>
+        <v>900</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>湯島天満宮</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/original/湯島天満宮/DSC_1088 (2).jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG-20190301-WA0011.jpg</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/湯島天満宮/DSC_1088 (2).jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20190301-WA0011.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2214</v>
+        <v>1600</v>
       </c>
       <c r="E18" t="n">
-        <v>995</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>湯島天満宮</t>
+          <t>assalaamfoundation</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/original/湯島天満宮/本殿2.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG-20190301-WA0012.jpg</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://nakamura196.github.io/shajikaido/files/medium/湯島天満宮/本殿2.jpg</t>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20190301-WA0012.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="E19" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG-20190315-WA0064.jpg</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20190315-WA0064.jpg</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG-20190517-WA0014.jpg</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20190517-WA0014.jpg</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG-20190518-WA0010.jpg</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20190518-WA0010.jpg</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG-20190518-WA0014.jpg</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20190518-WA0014.jpg</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG-20190518-WA0015.jpg</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20190518-WA0015.jpg</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG-20190518-WA0016.jpg</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20190518-WA0016.jpg</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG-20190518-WA0026.jpg</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20190518-WA0026.jpg</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG-20191110-WA0009.jpg</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20191110-WA0009.jpg</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG-20191116-WA0137.jpg</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20191116-WA0137.jpg</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG-20191116-WA0138.jpg</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20191116-WA0138.jpg</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG-20191116-WA0140.jpg</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20191116-WA0140.jpg</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG-20191228-WA0091.jpg</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20191228-WA0091.jpg</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG-20200208-WA0059.jpg</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20200208-WA0059.jpg</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG-20200208-WA0061.jpg</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20200208-WA0061.jpg</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG-20200214-WA0031.jpg</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG-20200214-WA0031.jpg</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG20171124125146.jpg</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG20171124125146.jpg</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>3200</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG20180303193338.jpg</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG20180303193338.jpg</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>3200</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG20180303201021.jpg</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG20180303201021.jpg</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>3200</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG_20180518_175542.jpg</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG_20180518_175542.jpg</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>2976</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG_20180822_070434.jpg</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG_20180822_070434.jpg</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>3968</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG_20180822_070449.jpg</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG_20180822_070449.jpg</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>3968</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG_20180822_071356.jpg</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG_20180822_071356.jpg</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>3968</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG_20180822_071439.jpg</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG_20180822_071439.jpg</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>3968</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/IMG_20180822_082103.jpg</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/IMG_20180822_082103.jpg</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>3968</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>assalaamfoundation</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/assalaamfoundation/Masjid Group-Entrance.jpg</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/assalaamfoundation/Masjid Group-Entrance.jpg</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E44" t="n">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>寛永寺</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/寛永寺/寛永寺１：東都上野東叡山全図　（葵の間什物）.jpg</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/寛永寺/寛永寺１：東都上野東叡山全図　（葵の間什物）.jpg</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>5189</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>神田明神</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/神田明神/3枚綴.jpg</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/3枚綴.jpg</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>4888</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>神田明神</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/神田明神/令和元年の神田祭　町神輿渡御.jpg</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/令和元年の神田祭　町神輿渡御.jpg</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>5616</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>神田明神</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/神田明神/令和元年の神田祭　神幸祭.jpg</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/令和元年の神田祭　神幸祭.jpg</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>7360</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4912</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>神田明神</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/神田明神/大正11年の神田祭.jpg</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/大正11年の神田祭.jpg</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>3107</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>神田明神</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/神田明神/大正5年の神田祭.jpg</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/大正5年の神田祭.jpg</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>3756</v>
+      </c>
+      <c r="E50" t="n">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>神田明神</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/神田明神/明治17年の神田祭.jpg</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/明治17年の神田祭.jpg</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>6082</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4771</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>神田明神</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/神田明神/錦02-01-36-1.jpg</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/錦02-01-36-1.jpg</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>6097</v>
+      </c>
+      <c r="E52" t="n">
+        <v>9039</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>神田明神</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/神田明神/錦02-01-36-2.jpg</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/錦02-01-36-2.jpg</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>6097</v>
+      </c>
+      <c r="E53" t="n">
+        <v>8942</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>神田明神</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/神田明神/錦02-01-36-3.jpg</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/錦02-01-36-3.jpg</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>6078</v>
+      </c>
+      <c r="E54" t="n">
+        <v>9019</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>神田明神</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/神田明神/錦02-01-87　神田祭出しづくし001.jpg</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/錦02-01-87　神田祭出しづくし001.jpg</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>6156</v>
+      </c>
+      <c r="E55" t="n">
+        <v>8736</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>神田明神</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/神田明神/錦02-01-87　神田祭出しづくし002.jpg</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/錦02-01-87　神田祭出しづくし002.jpg</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>6156</v>
+      </c>
+      <c r="E56" t="n">
+        <v>8736</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>神田明神</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/神田明神/錦02-01-87　神田祭出しづくし003.jpg</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/神田明神/錦02-01-87　神田祭出しづくし003.jpg</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>6156</v>
+      </c>
+      <c r="E57" t="n">
+        <v>8736</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>湯島聖堂</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/湯島聖堂/第1回夏期修養會：記念写真：1936.8月.jpg</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/湯島聖堂/第1回夏期修養會：記念写真：1936.8月.jpg</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>6535</v>
+      </c>
+      <c r="E58" t="n">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>湯島聖堂</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/湯島聖堂/第3回夏期修養會：第1回：記念写真：1938.7.25.jpg</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/湯島聖堂/第3回夏期修養會：第1回：記念写真：1938.7.25.jpg</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>3379</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4866</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>湯島聖堂</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/湯島聖堂/第3回夏期修養會：第2回：記念写真：1938.8.5.jpg</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/湯島聖堂/第3回夏期修養會：第2回：記念写真：1938.8.5.jpg</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>3379</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4866</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
           <t>湯島天満宮</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/湯島天満宮/DSC_1088 (2).jpg</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/湯島天満宮/DSC_1088 (2).jpg</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>2214</v>
+      </c>
+      <c r="E61" t="n">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>湯島天満宮</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/original/湯島天満宮/本殿2.jpg</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://nakamura196.github.io/shajikaido/files/medium/湯島天満宮/本殿2.jpg</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>600</v>
+      </c>
+      <c r="E62" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>湯島天満宮</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>https://nakamura196.github.io/shajikaido/files/original/湯島天満宮/梅まつり画像 (6).jpg</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>https://nakamura196.github.io/shajikaido/files/medium/湯島天満宮/梅まつり画像 (6).jpg</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D63" t="n">
         <v>640</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E63" t="n">
         <v>480</v>
       </c>
     </row>
